--- a/bots/crawl_ch/output/electronics_2022-08-20.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-20.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2818,24 +2818,24 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2859,34 +2859,34 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2896,12 +2896,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2910,17 +2910,17 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3356,32 +3356,32 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3399,141 +3399,141 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4335,148 +4335,148 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4490,17 +4490,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4520,17 +4520,17 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:40</t>
+          <t>2022-08-20 20:57:57</t>
         </is>
       </c>
     </row>
